--- a/uploads/downloadfiles/studentCreationBulkUpload.xlsx
+++ b/uploads/downloadfiles/studentCreationBulkUpload.xlsx
@@ -611,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CA1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,7 +955,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="14">
+  <dataValidations count="15">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
       <formula1>"Male,Female"</formula1>
     </dataValidation>
@@ -980,9 +980,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG1048576">
       <formula1>"Tamil,English"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ2:AJ1048576">
-      <formula1>"New Student,Old Student,Vijayadashami,All"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2:AK1048576">
       <formula1>"New Student,Old Student,Staff,Agent,Other"</formula1>
     </dataValidation>
@@ -997,6 +994,12 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ2:AQ1048576">
       <formula1>"VIP,Govt Quota,Student Quota,Teacher Quota"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ2:AJ1048576">
+      <formula1>"New Student,Old Student,Vijayadashami,All[New&amp;Old]"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:Y1048576">
+      <formula1>"PRE.K.G,L.K.G,U.K.G,I,II,III,IV,V,VI,VII,VIII,IX,X,XI_Maths_Biology,XI_Maths_ComputerScience,XI_Biology_ComputerScience,XI_Commerce_ComputerScience,XI_All,XII_Maths_Biology,XII_Maths_ComputerScience,XII_Biology_ComputerScience,XII_Commerce_ComputerScience"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
